--- a/doc/16_物体認識システム.xlsx
+++ b/doc/16_物体認識システム.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="０．全体概要" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="１．必要モジュールのインストール" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="２．ソースコード作成" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="補足" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,11 +23,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="1067">
   <si>
     <t>１．はじめに</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>本書は、</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -35,7 +46,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>本書は、</t>
+      <t>Raspberry Pi</t>
     </r>
     <r>
       <rPr>
@@ -44,16 +55,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>Raspberry Pi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>で</t>
     </r>
@@ -65,7 +66,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Tensorflow</t>
+      <t>Tensorflowを用いた画像認識（物体認識）を行う際の手順を示すものである。</t>
+    </r>
+  </si>
+  <si>
+    <t>２．目的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Raspberry</t>
     </r>
     <r>
       <rPr>
@@ -75,22 +91,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>を用いた画像認識（物体認識）を行う際の手順を示すものである。</t>
-    </r>
-  </si>
-  <si>
-    <t>２．目的</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Raspberry</t>
+      <t>上の</t>
     </r>
     <r>
       <rPr>
@@ -100,7 +101,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>上の</t>
+      <t>Pyhton</t>
     </r>
     <r>
       <rPr>
@@ -109,16 +110,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>Pyhton</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>プログラムから</t>
     </r>
@@ -130,6 +121,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t>Tensorflowを利用し、指定した画像ファイルに写っている物体の認識を行う。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t>Tensorflow</t>
     </r>
     <r>
@@ -140,19 +143,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>を利用し、指定した画像ファイルに写っている物体の認識を行う。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Tensorflow</t>
+      <t>で利用できるライブラリや学習モデルは多数あるが、今回は</t>
     </r>
     <r>
       <rPr>
@@ -162,7 +153,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>で利用できるライブラリや学習モデルは多数あるが、今回は</t>
+      <t>Keras</t>
     </r>
     <r>
       <rPr>
@@ -171,16 +162,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>Keras</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>（ライブラリ）、および</t>
     </r>
@@ -192,8 +173,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Inception V3</t>
+      <t>Inception V3（学習モデル）を利用する。</t>
     </r>
+  </si>
+  <si>
+    <t>なお、実際に利用する際には、カメラや他アプリケーションとの画像や結果の連携を行うことが想定されるが、連携部分はここでは割愛する。</t>
+  </si>
+  <si>
+    <t>３．前提事項</t>
+  </si>
+  <si>
+    <t>・Raspberry Piの初期設定がひと通り完了していること。</t>
+  </si>
+  <si>
+    <t>・「カメラ導入」手順が完了していること。</t>
+  </si>
+  <si>
+    <t>４．準備物</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -201,33 +199,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>（学習モデル）を利用する。</t>
-    </r>
-  </si>
-  <si>
-    <t>なお、実際に利用する際には、カメラや他アプリケーションとの画像や結果の連携を行うことが想定されるが、連携部分はここでは割愛する。</t>
-  </si>
-  <si>
-    <t>３．前提事項</t>
-  </si>
-  <si>
-    <t>・Raspberry Piの初期設定がひと通り完了していること。</t>
-  </si>
-  <si>
-    <t>・「カメラ導入」手順が完了していること。</t>
-  </si>
-  <si>
-    <t>４．準備物</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>・</t>
     </r>
@@ -239,7 +210,37 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Raspberry Pi</t>
+      <t>Raspberry Pi本体</t>
+    </r>
+  </si>
+  <si>
+    <t>・Raspberry Pi専用カメラ</t>
+  </si>
+  <si>
+    <t>５．構築の流れ</t>
+  </si>
+  <si>
+    <t>以下の流れで構築する。（詳細は各シート参照）</t>
+  </si>
+  <si>
+    <t>１．必要モジュールのインストール</t>
+  </si>
+  <si>
+    <t>２．ソースコード作成</t>
+  </si>
+  <si>
+    <t>６．補足</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TensorFlow</t>
     </r>
     <r>
       <rPr>
@@ -249,28 +250,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>本体</t>
+      <t>：</t>
     </r>
-  </si>
-  <si>
-    <t>・Raspberry Pi専用カメラ</t>
-  </si>
-  <si>
-    <t>５．構築の流れ</t>
-  </si>
-  <si>
-    <t>以下の流れで構築する。（詳細は各シート参照）</t>
-  </si>
-  <si>
-    <t>１．必要モジュールのインストール</t>
-  </si>
-  <si>
-    <t>２．ソースコード作成</t>
-  </si>
-  <si>
-    <t>６．補足</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Google</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -279,7 +270,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>TensorFlow</t>
+      <t>の機械学習</t>
     </r>
     <r>
       <rPr>
@@ -288,6 +279,100 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ディープラーニング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/多層ニューラルネットワークライブラリ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TensorFlow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>に対応した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Deep Learning用のラッパーライブラリ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>InceptionV3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>：</t>
     </r>
@@ -299,18 +384,10 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Google</t>
+      <t>Googleが開発した高精度の学習モデル。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の機械学習</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -318,152 +395,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ディープラーニング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>多層ニューラルネットワークライブラリ。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Keras</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>TensorFlow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に対応した</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Deep Learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>用のラッパーライブラリ。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>InceptionV3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Google</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>が開発した高精度の学習モデル。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>１．１．</t>
     </r>
@@ -475,7 +406,41 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>OpenCV</t>
+      <t>OpenCVのインストール</t>
+    </r>
+  </si>
+  <si>
+    <t>コンソールから以下のコマンドを入力する。</t>
+  </si>
+  <si>
+    <t>$ wget https://github.com/mt08xx/files/raw/master/opencv-rpi/libopencv3_3.4.0-20180115.1_armhf.deb</t>
+  </si>
+  <si>
+    <t>$ sudo apt install -y ./libopencv3_3.4.0-20180115.1_armhf.deb</t>
+  </si>
+  <si>
+    <t>$ sudo ldconfig</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>１．２．</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TensorFlow</t>
     </r>
     <r>
       <rPr>
@@ -484,50 +449,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>のインストール</t>
-    </r>
-  </si>
-  <si>
-    <t>コンソールから以下のコマンドを入力する。</t>
-  </si>
-  <si>
-    <t>$ wget https://github.com/mt08xx/files/raw/master/opencv-rpi/libopencv3_3.4.0-20180115.1_armhf.deb</t>
-  </si>
-  <si>
-    <t>$ sudo apt install -y ./libopencv3_3.4.0-20180115.1_armhf.deb</t>
-  </si>
-  <si>
-    <t>$ sudo ldconfig</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>１．２．</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>TensorFlow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>と</t>
     </r>
@@ -539,8 +460,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Keras</t>
+      <t>Kerasのインストール</t>
     </r>
+  </si>
+  <si>
+    <t>$ pip3 install numpy==1.13</t>
+  </si>
+  <si>
+    <t>$ sudo apt-get install libblas-dev liblapack-dev python3-dev libatlas-base-dev gfortran python3-setuptools</t>
+  </si>
+  <si>
+    <t>$ sudo pip3 install https://github.com/lhelontra/tensorflow-on-arm/releases/download/v1.4.1/tensorflow-1.4.1-cp35-none-linux_armv7l.whl</t>
+  </si>
+  <si>
+    <t>$ sudo apt-get install python3-h5py</t>
+  </si>
+  <si>
+    <t>$ pip3 install keras==2.1.2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -548,33 +486,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>のインストール</t>
-    </r>
-  </si>
-  <si>
-    <t>$ pip3 install numpy==1.13</t>
-  </si>
-  <si>
-    <t>$ sudo apt-get install libblas-dev liblapack-dev python3-dev libatlas-base-dev gfortran python3-setuptools</t>
-  </si>
-  <si>
-    <t>$ sudo pip3 install https://github.com/lhelontra/tensorflow-on-arm/releases/download/v1.4.1/tensorflow-1.4.1-cp35-none-linux_armv7l.whl</t>
-  </si>
-  <si>
-    <t>$ sudo apt-get install python3-h5py</t>
-  </si>
-  <si>
-    <t>$ pip3 install keras==2.1.2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>※最後の行は</t>
     </r>
@@ -586,7 +497,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1</t>
+      <t>1時間近くかかる可能性あり</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※TensorFlow</t>
     </r>
     <r>
       <rPr>
@@ -595,28 +518,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>時間近くかかる可能性あり</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>※TensorFlow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>と</t>
     </r>
@@ -628,8 +529,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Keras</t>
+      <t>Kerasはバージョンの整合性を合わせないと動かないためバージョンを細かく指定している。</t>
     </r>
+  </si>
+  <si>
+    <t>２．１．ソースコード作成</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -637,21 +543,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>はバージョンの整合性を合わせないと動かないためバージョンを細かく指定している。</t>
-    </r>
-  </si>
-  <si>
-    <t>２．１．ソースコード作成</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>以下のソースコードを「</t>
     </r>
@@ -663,17 +554,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>test.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>」として作成する。</t>
+      <t>test.py」として作成する。</t>
     </r>
   </si>
   <si>
@@ -693,9 +574,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF6600"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="IPA Pゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t>学習モデル「</t>
     </r>
@@ -707,8 +588,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>InceptionV3</t>
+      <t>InceptionV3」を利用</t>
     </r>
+  </si>
+  <si>
+    <t>img_path = 'test.jpg'</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -716,21 +602,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>」を利用</t>
-    </r>
-  </si>
-  <si>
-    <t>img_path = 'test.jpg'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>対象は「</t>
     </r>
@@ -742,50 +613,50 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>test.jpg</t>
+      <t>test.jpg」</t>
     </r>
+  </si>
+  <si>
+    <t>img = image.load_img(img_path, target_size=(299, 299))</t>
+  </si>
+  <si>
+    <t>x = image.img_to_array(img)</t>
+  </si>
+  <si>
+    <t>x = np.expand_dims(x, axis=0)</t>
+  </si>
+  <si>
+    <t>x = preprocess_input(x)</t>
+  </si>
+  <si>
+    <t>preds = model.predict(x)</t>
+  </si>
+  <si>
+    <t>print('Predicted:')</t>
+  </si>
+  <si>
+    <t>for p in decode_predictions(preds, top=5)[0]:</t>
+  </si>
+  <si>
+    <t>可能性が高い順に表示</t>
+  </si>
+  <si>
+    <t>    print("Score {}, Label {}".format(p[2], p[1]))</t>
+  </si>
+  <si>
+    <t>２．２．検証用画像の配置</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF6600"/>
+        <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>」</t>
+      <t>「</t>
     </r>
-  </si>
-  <si>
-    <t>img = image.load_img(img_path, target_size=(299, 299))</t>
-  </si>
-  <si>
-    <t>x = image.img_to_array(img)</t>
-  </si>
-  <si>
-    <t>x = np.expand_dims(x, axis=0)</t>
-  </si>
-  <si>
-    <t>x = preprocess_input(x)</t>
-  </si>
-  <si>
-    <t>preds = model.predict(x)</t>
-  </si>
-  <si>
-    <t>print('Predicted:')</t>
-  </si>
-  <si>
-    <t>for p in decode_predictions(preds, top=5)[0]:</t>
-  </si>
-  <si>
-    <t>可能性が高い順に表示</t>
-  </si>
-  <si>
-    <t>    print("Score {}, Label {}".format(p[2], p[1]))</t>
-  </si>
-  <si>
-    <t>２．２．検証用画像の配置</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -794,7 +665,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>「</t>
+      <t>test.py</t>
     </r>
     <r>
       <rPr>
@@ -803,16 +674,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>test.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>」と同じディレクトリに「</t>
     </r>
@@ -824,8 +685,46 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>test.jpg</t>
+      <t>test.jpg」を配置する。（今回は下記画像を利用）</t>
     </r>
+  </si>
+  <si>
+    <t>２．３．プログラム実行</t>
+  </si>
+  <si>
+    <t>コンソールで以下コマンドを実行。</t>
+  </si>
+  <si>
+    <t>cd ○○</t>
+  </si>
+  <si>
+    <t>○○：上記ファイルを配置したディレクトリ</t>
+  </si>
+  <si>
+    <t>python3 test.py</t>
+  </si>
+  <si>
+    <t>２．４．コンソール上で結果を確認する。</t>
+  </si>
+  <si>
+    <t>Score 0.5845839381217957, Label African_elephant</t>
+  </si>
+  <si>
+    <t>「アフリカゾウ」である可能性が高いと判定された</t>
+  </si>
+  <si>
+    <t>Score 0.35385632514953613, Label tusker</t>
+  </si>
+  <si>
+    <t>Score 0.01978548988699913, Label Indian_elephant</t>
+  </si>
+  <si>
+    <t>Score 0.0005529597983695567, Label ice_bear</t>
+  </si>
+  <si>
+    <t>Score 0.0005336249596439302, Label Arabian_camel</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -833,54 +732,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>」を配置する。（今回は下記画像を利用）</t>
-    </r>
-  </si>
-  <si>
-    <t>２．３．プログラム実行</t>
-  </si>
-  <si>
-    <t>コンソールで以下コマンドを実行。</t>
-  </si>
-  <si>
-    <t>cd ○○</t>
-  </si>
-  <si>
-    <t>○○：上記ファイルを配置したディレクトリ</t>
-  </si>
-  <si>
-    <t>python3 test.py</t>
-  </si>
-  <si>
-    <t>２．４．コンソール上で結果を確認する。</t>
-  </si>
-  <si>
-    <t>Score 0.5845839381217957, Label African_elephant</t>
-  </si>
-  <si>
-    <t>「アフリカゾウ」である可能性が高いと判定された</t>
-  </si>
-  <si>
-    <t>Score 0.35385632514953613, Label tusker</t>
-  </si>
-  <si>
-    <t>Score 0.01978548988699913, Label Indian_elephant</t>
-  </si>
-  <si>
-    <t>Score 0.0005529597983695567, Label ice_bear</t>
-  </si>
-  <si>
-    <t>Score 0.0005336249596439302, Label Arabian_camel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>※大容量の学習モデルを読み込むため、結果が出るまでに</t>
     </r>
@@ -892,18 +743,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1</t>
+      <t>1分程度かかる。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>分程度かかる。</t>
-    </r>
   </si>
   <si>
     <t>　モデルの読み込みまで済ませた状態で認識処理のみを実行した場合、数秒で結果が出る。</t>
@@ -913,6 +754,3000 @@
   </si>
   <si>
     <t>　そのため精度は高くないが、自分でモデルを作成すれば他の物体も認識可能なはず。</t>
+  </si>
+  <si>
+    <t>Inception V3のモデルでは、1000クラスに分類される。</t>
+  </si>
+  <si>
+    <t>結果は英語だが、下記URLで日本語変換用のjsonファイルが公開されており、これを利用している。</t>
+  </si>
+  <si>
+    <t>https://qiita.com/PonDad/items/c5419c164b4f2efee368</t>
+  </si>
+  <si>
+    <t>JSON:　https://gist.github.com/PonDad/4dcb4b242b9358e524b4ddecbee385e9</t>
+  </si>
+  <si>
+    <t>なお、対象となる物体（日本語訳）は以下の通り。</t>
+  </si>
+  <si>
+    <t>意味のわからない単語も多数あり。</t>
+  </si>
+  <si>
+    <t>＜対象物一覧＞</t>
+  </si>
+  <si>
+    <t>テンチ</t>
+  </si>
+  <si>
+    <t>金魚</t>
+  </si>
+  <si>
+    <t>ホホジロザメ</t>
+  </si>
+  <si>
+    <t>イタチザメ</t>
+  </si>
+  <si>
+    <t>ハンマーヘッド</t>
+  </si>
+  <si>
+    <t>シビレエイ</t>
+  </si>
+  <si>
+    <t>アカエイ</t>
+  </si>
+  <si>
+    <t>コック</t>
+  </si>
+  <si>
+    <t>めんどり</t>
+  </si>
+  <si>
+    <t>ダチョウ</t>
+  </si>
+  <si>
+    <t>アトリ</t>
+  </si>
+  <si>
+    <t>ゴシキヒワ</t>
+  </si>
+  <si>
+    <t>ハウスフィンチ</t>
+  </si>
+  <si>
+    <t>ユキヒメドリ</t>
+  </si>
+  <si>
+    <t>インディゴホオジロ</t>
+  </si>
+  <si>
+    <t>ロビン</t>
+  </si>
+  <si>
+    <t>ブルブル</t>
+  </si>
+  <si>
+    <t>カケス</t>
+  </si>
+  <si>
+    <t>カササギ</t>
+  </si>
+  <si>
+    <t>四十雀</t>
+  </si>
+  <si>
+    <t>水クロウタドリ</t>
+  </si>
+  <si>
+    <t>凧</t>
+  </si>
+  <si>
+    <t>白頭ワシ</t>
+  </si>
+  <si>
+    <t>ハゲワシ</t>
+  </si>
+  <si>
+    <t>カラフトフクロウ</t>
+  </si>
+  <si>
+    <t>欧州ファイアサラマンダー</t>
+  </si>
+  <si>
+    <t>共通イモリ</t>
+  </si>
+  <si>
+    <t>イモリ</t>
+  </si>
+  <si>
+    <t>サンショウウオを発見</t>
+  </si>
+  <si>
+    <t>アホロートル</t>
+  </si>
+  <si>
+    <t>ウシガエル</t>
+  </si>
+  <si>
+    <t>アマガエル</t>
+  </si>
+  <si>
+    <t>つかれたカエル</t>
+  </si>
+  <si>
+    <t>とんちき</t>
+  </si>
+  <si>
+    <t>オサガメ</t>
+  </si>
+  <si>
+    <t>鼈</t>
+  </si>
+  <si>
+    <t>テラピン</t>
+  </si>
+  <si>
+    <t>ハコガメ</t>
+  </si>
+  <si>
+    <t>縞模様のヤモリ</t>
+  </si>
+  <si>
+    <t>共通イグアナ</t>
+  </si>
+  <si>
+    <t>アメリカンカメレオン</t>
+  </si>
+  <si>
+    <t>ウィッペイル</t>
+  </si>
+  <si>
+    <t>アガマトカゲ</t>
+  </si>
+  <si>
+    <t>フリルトカゲ</t>
+  </si>
+  <si>
+    <t>アリゲータートカゲ</t>
+  </si>
+  <si>
+    <t>アメリカドクトカゲ</t>
+  </si>
+  <si>
+    <t>緑のトカゲ</t>
+  </si>
+  <si>
+    <t>アフリカのカメレオン</t>
+  </si>
+  <si>
+    <t>コモドドラゴン</t>
+  </si>
+  <si>
+    <t>アフリカのワニ</t>
+  </si>
+  <si>
+    <t>アメリカワニ</t>
+  </si>
+  <si>
+    <t>トリケラトプス</t>
+  </si>
+  <si>
+    <t>雷のヘビ</t>
+  </si>
+  <si>
+    <t>リングネックスネーク</t>
+  </si>
+  <si>
+    <t>ホーノースヘビ</t>
+  </si>
+  <si>
+    <t>緑のヘビ</t>
+  </si>
+  <si>
+    <t>キングスネーク</t>
+  </si>
+  <si>
+    <t>ガータースネーク</t>
+  </si>
+  <si>
+    <t>水蛇</t>
+  </si>
+  <si>
+    <t>つるヘビ</t>
+  </si>
+  <si>
+    <t>夜のヘビ</t>
+  </si>
+  <si>
+    <t>ボア・コンストリクター</t>
+  </si>
+  <si>
+    <t>ロックパイソン</t>
+  </si>
+  <si>
+    <t>インドコブラ</t>
+  </si>
+  <si>
+    <t>グリーンマンバ</t>
+  </si>
+  <si>
+    <t>ウミヘビ</t>
+  </si>
+  <si>
+    <t>ツノクサリヘビ</t>
+  </si>
+  <si>
+    <t>ダイヤ</t>
+  </si>
+  <si>
+    <t>サイドワインダー</t>
+  </si>
+  <si>
+    <t>三葉虫</t>
+  </si>
+  <si>
+    <t>刈り入れ作業者</t>
+  </si>
+  <si>
+    <t>サソリ</t>
+  </si>
+  <si>
+    <t>黒と金の庭クモ</t>
+  </si>
+  <si>
+    <t>納屋クモ</t>
+  </si>
+  <si>
+    <t>庭クモ</t>
+  </si>
+  <si>
+    <t>クロゴケグモ</t>
+  </si>
+  <si>
+    <t>タランチュラ</t>
+  </si>
+  <si>
+    <t>オオカミのクモ</t>
+  </si>
+  <si>
+    <t>ダニ</t>
+  </si>
+  <si>
+    <t>百足</t>
+  </si>
+  <si>
+    <t>クロライチョウ</t>
+  </si>
+  <si>
+    <t>雷鳥</t>
+  </si>
+  <si>
+    <t>ひだえりの付いたライチョウ</t>
+  </si>
+  <si>
+    <t>草原チキン</t>
+  </si>
+  <si>
+    <t>孔雀</t>
+  </si>
+  <si>
+    <t>ウズラ</t>
+  </si>
+  <si>
+    <t>ヤマウズラ</t>
+  </si>
+  <si>
+    <t>アフリカの灰色</t>
+  </si>
+  <si>
+    <t>コンゴウインコ</t>
+  </si>
+  <si>
+    <t>硫黄トキオウム</t>
+  </si>
+  <si>
+    <t>インコ</t>
+  </si>
+  <si>
+    <t>バンケン</t>
+  </si>
+  <si>
+    <t>蜂食べる人</t>
+  </si>
+  <si>
+    <t>サイチョウ</t>
+  </si>
+  <si>
+    <t>ハチドリ</t>
+  </si>
+  <si>
+    <t>錐嘴</t>
+  </si>
+  <si>
+    <t>オオハシ</t>
+  </si>
+  <si>
+    <t>ドレイク</t>
+  </si>
+  <si>
+    <t>赤ブレストアイサ属のガモ</t>
+  </si>
+  <si>
+    <t>ガチョウ</t>
+  </si>
+  <si>
+    <t>黒い白鳥</t>
+  </si>
+  <si>
+    <t>タスカービール</t>
+  </si>
+  <si>
+    <t>ハリモグラ</t>
+  </si>
+  <si>
+    <t>カモノハシ</t>
+  </si>
+  <si>
+    <t>ワラビー</t>
+  </si>
+  <si>
+    <t>コアラ</t>
+  </si>
+  <si>
+    <t>ウォンバット</t>
+  </si>
+  <si>
+    <t>クラゲ</t>
+  </si>
+  <si>
+    <t>イソギンチャク</t>
+  </si>
+  <si>
+    <t>脳サンゴ</t>
+  </si>
+  <si>
+    <t>扁形動物</t>
+  </si>
+  <si>
+    <t>線虫</t>
+  </si>
+  <si>
+    <t>巻き貝</t>
+  </si>
+  <si>
+    <t>カタツムリ</t>
+  </si>
+  <si>
+    <t>ナメクジ</t>
+  </si>
+  <si>
+    <t>ウミウシ</t>
+  </si>
+  <si>
+    <t>キトン</t>
+  </si>
+  <si>
+    <t>オウムガイ</t>
+  </si>
+  <si>
+    <t>アメリカイチョウガニ</t>
+  </si>
+  <si>
+    <t>岩カニ</t>
+  </si>
+  <si>
+    <t>シオマネキ</t>
+  </si>
+  <si>
+    <t>タラバガニ</t>
+  </si>
+  <si>
+    <t>アメリカンロブスター</t>
+  </si>
+  <si>
+    <t>伊勢エビ</t>
+  </si>
+  <si>
+    <t>ザリガニ</t>
+  </si>
+  <si>
+    <t>ヤドカリ</t>
+  </si>
+  <si>
+    <t>等脚類</t>
+  </si>
+  <si>
+    <t>コウノトリ</t>
+  </si>
+  <si>
+    <t>ナベコウ</t>
+  </si>
+  <si>
+    <t>ヘラサギ</t>
+  </si>
+  <si>
+    <t>フラミンゴ</t>
+  </si>
+  <si>
+    <t>小さな青いサギ</t>
+  </si>
+  <si>
+    <t>アメリカン白鷺</t>
+  </si>
+  <si>
+    <t>にがり</t>
+  </si>
+  <si>
+    <t>クレーン</t>
+  </si>
+  <si>
+    <t>ツルモドキ科の鳥</t>
+  </si>
+  <si>
+    <t>ヨーロピアン水鳥</t>
+  </si>
+  <si>
+    <t>アメリカオオバン</t>
+  </si>
+  <si>
+    <t>ノガン</t>
+  </si>
+  <si>
+    <t>キョウジョシギ</t>
+  </si>
+  <si>
+    <t>赤担保シギ</t>
+  </si>
+  <si>
+    <t>アカアシシギ</t>
+  </si>
+  <si>
+    <t>オオハシシギ</t>
+  </si>
+  <si>
+    <t>ミヤコドリ</t>
+  </si>
+  <si>
+    <t>ペリカン</t>
+  </si>
+  <si>
+    <t>キングペンギン</t>
+  </si>
+  <si>
+    <t>アルバトロス</t>
+  </si>
+  <si>
+    <t>コククジラ</t>
+  </si>
+  <si>
+    <t>シャチ</t>
+  </si>
+  <si>
+    <t>ジュゴン</t>
+  </si>
+  <si>
+    <t>アシカ</t>
+  </si>
+  <si>
+    <t>チワワ</t>
+  </si>
+  <si>
+    <t>狆</t>
+  </si>
+  <si>
+    <t>マルチーズ犬</t>
+  </si>
+  <si>
+    <t>シーズー、シーズー</t>
+  </si>
+  <si>
+    <t>ブレナムスパニエル</t>
+  </si>
+  <si>
+    <t>パピヨン</t>
+  </si>
+  <si>
+    <t>トイテリア</t>
+  </si>
+  <si>
+    <t>ローデシアン・リッジバック</t>
+  </si>
+  <si>
+    <t>アフガンハウンド</t>
+  </si>
+  <si>
+    <t>バセット犬</t>
+  </si>
+  <si>
+    <t>ビーグル</t>
+  </si>
+  <si>
+    <t>ブラッドハウンド</t>
+  </si>
+  <si>
+    <t>ブルーティック</t>
+  </si>
+  <si>
+    <t>黒と黄褐色の猟犬</t>
+  </si>
+  <si>
+    <t>ウォーカーハウンド</t>
+  </si>
+  <si>
+    <t>イングリッシュフォックスハウンド</t>
+  </si>
+  <si>
+    <t>レッドボーン</t>
+  </si>
+  <si>
+    <t>ボルゾイ</t>
+  </si>
+  <si>
+    <t>アイリッシュ・ウルフハウンド</t>
+  </si>
+  <si>
+    <t>イタリアングレーハウンド</t>
+  </si>
+  <si>
+    <t>ウィペット</t>
+  </si>
+  <si>
+    <t>イビサハウンド</t>
+  </si>
+  <si>
+    <t>ノルウェーエルクハウンド</t>
+  </si>
+  <si>
+    <t>オッターハウンド</t>
+  </si>
+  <si>
+    <t>サルーキ</t>
+  </si>
+  <si>
+    <t>スコティッシュ・ディアハウンド</t>
+  </si>
+  <si>
+    <t>ワイマラナー</t>
+  </si>
+  <si>
+    <t>スタフォードシャーブルテリア</t>
+  </si>
+  <si>
+    <t>アメリカン・スタッフォードシャー・テリア</t>
+  </si>
+  <si>
+    <t>ベドリントンテリア</t>
+  </si>
+  <si>
+    <t>ボーダーテリア</t>
+  </si>
+  <si>
+    <t>ケリーブルーテリア</t>
+  </si>
+  <si>
+    <t>アイリッシュテリア</t>
+  </si>
+  <si>
+    <t>ノーフォークテリア</t>
+  </si>
+  <si>
+    <t>ノーリッチ・テリア</t>
+  </si>
+  <si>
+    <t>ヨークシャーテリア</t>
+  </si>
+  <si>
+    <t>ワイヤーヘアー・フォックステリア</t>
+  </si>
+  <si>
+    <t>レークランドテリア</t>
+  </si>
+  <si>
+    <t>シーリーハムテリア</t>
+  </si>
+  <si>
+    <t>エアデール</t>
+  </si>
+  <si>
+    <t>ケルン</t>
+  </si>
+  <si>
+    <t>オーストラリアテリア</t>
+  </si>
+  <si>
+    <t>ダンディディンモントテリア</t>
+  </si>
+  <si>
+    <t>ボストンブル</t>
+  </si>
+  <si>
+    <t>ミニチュアシュナウザー</t>
+  </si>
+  <si>
+    <t>ジャイアントシュナウザー</t>
+  </si>
+  <si>
+    <t>スタンダードシュナウザー</t>
+  </si>
+  <si>
+    <t>スコッチテリア</t>
+  </si>
+  <si>
+    <t>チベタンテリア</t>
+  </si>
+  <si>
+    <t>シルキーテリア</t>
+  </si>
+  <si>
+    <t>ソフトコーテッド・ウィートン・テリア</t>
+  </si>
+  <si>
+    <t>ウェストハイランドホワイトテリア</t>
+  </si>
+  <si>
+    <t>ラサ</t>
+  </si>
+  <si>
+    <t>フラットコーテッド・レトリーバー</t>
+  </si>
+  <si>
+    <t>カーリーコーティングされたレトリーバー</t>
+  </si>
+  <si>
+    <t>ゴールデンレトリバー</t>
+  </si>
+  <si>
+    <t>ラブラドル・レトリーバー犬</t>
+  </si>
+  <si>
+    <t>チェサピーク湾レトリーバー</t>
+  </si>
+  <si>
+    <t>ジャーマン・ショートヘア・ポインタ</t>
+  </si>
+  <si>
+    <t>ビズラ</t>
+  </si>
+  <si>
+    <t>イングリッシュセッター</t>
+  </si>
+  <si>
+    <t>アイリッシュセッター</t>
+  </si>
+  <si>
+    <t>ゴードンセッター</t>
+  </si>
+  <si>
+    <t>ブリタニースパニエル</t>
+  </si>
+  <si>
+    <t>クランバー</t>
+  </si>
+  <si>
+    <t>イングリッシュスプリンガー</t>
+  </si>
+  <si>
+    <t>ウェルシュスプリンガースパニエル</t>
+  </si>
+  <si>
+    <t>コッカースパニエル</t>
+  </si>
+  <si>
+    <t>サセックススパニエル</t>
+  </si>
+  <si>
+    <t>アイルランドのウォータースパニエル</t>
+  </si>
+  <si>
+    <t>クバース犬</t>
+  </si>
+  <si>
+    <t>スキッパーキー</t>
+  </si>
+  <si>
+    <t>ベルジアン・シェパード・ドッグ・グローネンダール</t>
+  </si>
+  <si>
+    <t>マリノア</t>
+  </si>
+  <si>
+    <t>ブリアール</t>
+  </si>
+  <si>
+    <t>ケルピー</t>
+  </si>
+  <si>
+    <t>コモンドール</t>
+  </si>
+  <si>
+    <t>オールドイングリッシュシープドッグ</t>
+  </si>
+  <si>
+    <t>シェトランドシープドッグ</t>
+  </si>
+  <si>
+    <t>コリー</t>
+  </si>
+  <si>
+    <t>ボーダーコリー</t>
+  </si>
+  <si>
+    <t>ブーヴィエ・デ・フランドル</t>
+  </si>
+  <si>
+    <t>ロットワイラー</t>
+  </si>
+  <si>
+    <t>ジャーマンシェパード</t>
+  </si>
+  <si>
+    <t>ドーベルマン犬</t>
+  </si>
+  <si>
+    <t>ミニチュアピンシャー</t>
+  </si>
+  <si>
+    <t>グレータースイスマウンテンドッグ</t>
+  </si>
+  <si>
+    <t>バーネーズマウンテンドッグ</t>
+  </si>
+  <si>
+    <t>アッペンツェル</t>
+  </si>
+  <si>
+    <t>エントレブッシャー</t>
+  </si>
+  <si>
+    <t>ボクサー</t>
+  </si>
+  <si>
+    <t>ブルマスチフ</t>
+  </si>
+  <si>
+    <t>チベットマスチフ</t>
+  </si>
+  <si>
+    <t>フレンチブルドッグ</t>
+  </si>
+  <si>
+    <t>グレートデーン</t>
+  </si>
+  <si>
+    <t>セントバーナード</t>
+  </si>
+  <si>
+    <t>エスキモー犬</t>
+  </si>
+  <si>
+    <t>マラミュート</t>
+  </si>
+  <si>
+    <t>シベリアンハスキー</t>
+  </si>
+  <si>
+    <t>ダルメシアン</t>
+  </si>
+  <si>
+    <t>アーフェンピンシャー</t>
+  </si>
+  <si>
+    <t>バセンジー</t>
+  </si>
+  <si>
+    <t>パグ</t>
+  </si>
+  <si>
+    <t>レオンバーグ</t>
+  </si>
+  <si>
+    <t>ニューファンドランド島</t>
+  </si>
+  <si>
+    <t>グレートピレニーズ</t>
+  </si>
+  <si>
+    <t>サモエド</t>
+  </si>
+  <si>
+    <t>ポメラニアン</t>
+  </si>
+  <si>
+    <t>チャウ</t>
+  </si>
+  <si>
+    <t>キースホンド</t>
+  </si>
+  <si>
+    <t>ブラバンソングリフォン</t>
+  </si>
+  <si>
+    <t>ペンブローク</t>
+  </si>
+  <si>
+    <t>カーディガン</t>
+  </si>
+  <si>
+    <t>トイプードル</t>
+  </si>
+  <si>
+    <t>ミニチュアプードル</t>
+  </si>
+  <si>
+    <t>スタンダードプードル</t>
+  </si>
+  <si>
+    <t>メキシカン・ヘアーレス</t>
+  </si>
+  <si>
+    <t>シンリンオオカミ</t>
+  </si>
+  <si>
+    <t>白いオオカミ</t>
+  </si>
+  <si>
+    <t>レッドウルフ</t>
+  </si>
+  <si>
+    <t>コヨーテ</t>
+  </si>
+  <si>
+    <t>ディンゴ</t>
+  </si>
+  <si>
+    <t>ドール</t>
+  </si>
+  <si>
+    <t>リカオン</t>
+  </si>
+  <si>
+    <t>ハイエナ</t>
+  </si>
+  <si>
+    <t>アカギツネ</t>
+  </si>
+  <si>
+    <t>キットキツネ</t>
+  </si>
+  <si>
+    <t>ホッキョクギツネ</t>
+  </si>
+  <si>
+    <t>灰色のキツネ</t>
+  </si>
+  <si>
+    <t>タビー</t>
+  </si>
+  <si>
+    <t>虎猫</t>
+  </si>
+  <si>
+    <t>ペルシャ猫</t>
+  </si>
+  <si>
+    <t>シャム猫</t>
+  </si>
+  <si>
+    <t>エジプトの猫</t>
+  </si>
+  <si>
+    <t>クーガー</t>
+  </si>
+  <si>
+    <t>オオヤマネコ</t>
+  </si>
+  <si>
+    <t>ヒョウ</t>
+  </si>
+  <si>
+    <t>ユキヒョウ</t>
+  </si>
+  <si>
+    <t>ジャガー</t>
+  </si>
+  <si>
+    <t>ライオン</t>
+  </si>
+  <si>
+    <t>虎</t>
+  </si>
+  <si>
+    <t>チーター</t>
+  </si>
+  <si>
+    <t>ヒグマ</t>
+  </si>
+  <si>
+    <t>アメリカクロクマ</t>
+  </si>
+  <si>
+    <t>氷のクマ</t>
+  </si>
+  <si>
+    <t>ナマケグマ</t>
+  </si>
+  <si>
+    <t>マングース</t>
+  </si>
+  <si>
+    <t>ミーアキャット</t>
+  </si>
+  <si>
+    <t>ハンミョウ</t>
+  </si>
+  <si>
+    <t>てんとう虫</t>
+  </si>
+  <si>
+    <t>グランドビートル</t>
+  </si>
+  <si>
+    <t>カミキリムシ</t>
+  </si>
+  <si>
+    <t>ハムシ</t>
+  </si>
+  <si>
+    <t>フンコロガシ</t>
+  </si>
+  <si>
+    <t>サイハムシ</t>
+  </si>
+  <si>
+    <t>ゾウムシ</t>
+  </si>
+  <si>
+    <t>ハエ</t>
+  </si>
+  <si>
+    <t>蜂</t>
+  </si>
+  <si>
+    <t>蟻</t>
+  </si>
+  <si>
+    <t>バッタ</t>
+  </si>
+  <si>
+    <t>クリケット</t>
+  </si>
+  <si>
+    <t>杖</t>
+  </si>
+  <si>
+    <t>ゴキブリ</t>
+  </si>
+  <si>
+    <t>カマキリ</t>
+  </si>
+  <si>
+    <t>蝉</t>
+  </si>
+  <si>
+    <t>ヨコバイ</t>
+  </si>
+  <si>
+    <t>クサカゲロウ</t>
+  </si>
+  <si>
+    <t>トンボ</t>
+  </si>
+  <si>
+    <t>イトトンボ</t>
+  </si>
+  <si>
+    <t>提督</t>
+  </si>
+  <si>
+    <t>リングレット</t>
+  </si>
+  <si>
+    <t>君主</t>
+  </si>
+  <si>
+    <t>モンシロチョウ</t>
+  </si>
+  <si>
+    <t>硫黄蝶</t>
+  </si>
+  <si>
+    <t>シジミチョウ</t>
+  </si>
+  <si>
+    <t>ヒトデ</t>
+  </si>
+  <si>
+    <t>うに</t>
+  </si>
+  <si>
+    <t>ナマコ</t>
+  </si>
+  <si>
+    <t>木のウサギ</t>
+  </si>
+  <si>
+    <t>野ウサギ</t>
+  </si>
+  <si>
+    <t>アンゴラ</t>
+  </si>
+  <si>
+    <t>ハムスター</t>
+  </si>
+  <si>
+    <t>ヤマアラシ</t>
+  </si>
+  <si>
+    <t>キツネリス</t>
+  </si>
+  <si>
+    <t>マーモット</t>
+  </si>
+  <si>
+    <t>ビーバー</t>
+  </si>
+  <si>
+    <t>モルモット</t>
+  </si>
+  <si>
+    <t>栗色</t>
+  </si>
+  <si>
+    <t>シマウマ</t>
+  </si>
+  <si>
+    <t>豚</t>
+  </si>
+  <si>
+    <t>イノシシ</t>
+  </si>
+  <si>
+    <t>イボイノシシ</t>
+  </si>
+  <si>
+    <t>カバ</t>
+  </si>
+  <si>
+    <t>雄牛</t>
+  </si>
+  <si>
+    <t>水牛</t>
+  </si>
+  <si>
+    <t>バイソン</t>
+  </si>
+  <si>
+    <t>ラム</t>
+  </si>
+  <si>
+    <t>ビッグホーン</t>
+  </si>
+  <si>
+    <t>アイベックス</t>
+  </si>
+  <si>
+    <t>ハーテビースト</t>
+  </si>
+  <si>
+    <t>インパラ</t>
+  </si>
+  <si>
+    <t>ガゼル</t>
+  </si>
+  <si>
+    <t>アラビアラクダ</t>
+  </si>
+  <si>
+    <t>ラマ</t>
+  </si>
+  <si>
+    <t>イタチ</t>
+  </si>
+  <si>
+    <t>ミンク</t>
+  </si>
+  <si>
+    <t>ケナガイタチ</t>
+  </si>
+  <si>
+    <t>クロアシイタチ</t>
+  </si>
+  <si>
+    <t>カワウソ</t>
+  </si>
+  <si>
+    <t>スカンク</t>
+  </si>
+  <si>
+    <t>狸</t>
+  </si>
+  <si>
+    <t>アルマジロ</t>
+  </si>
+  <si>
+    <t>ミユビナマケモノ</t>
+  </si>
+  <si>
+    <t>オランウータン</t>
+  </si>
+  <si>
+    <t>ゴリラ</t>
+  </si>
+  <si>
+    <t>チンパンジー</t>
+  </si>
+  <si>
+    <t>テナガザル</t>
+  </si>
+  <si>
+    <t>フクロテナガザル</t>
+  </si>
+  <si>
+    <t>オナガザル</t>
+  </si>
+  <si>
+    <t>パタス</t>
+  </si>
+  <si>
+    <t>ヒヒ</t>
+  </si>
+  <si>
+    <t>マカク</t>
+  </si>
+  <si>
+    <t>ヤセザル</t>
+  </si>
+  <si>
+    <t>コロブス属</t>
+  </si>
+  <si>
+    <t>テングザル</t>
+  </si>
+  <si>
+    <t>マーモセット</t>
+  </si>
+  <si>
+    <t>オマキザル</t>
+  </si>
+  <si>
+    <t>ホエザル</t>
+  </si>
+  <si>
+    <t>ティティ</t>
+  </si>
+  <si>
+    <t>クモザル</t>
+  </si>
+  <si>
+    <t>リスザル</t>
+  </si>
+  <si>
+    <t>マダガスカル猫</t>
+  </si>
+  <si>
+    <t>インドリ</t>
+  </si>
+  <si>
+    <t>インドゾウ</t>
+  </si>
+  <si>
+    <t>アフリカゾウ</t>
+  </si>
+  <si>
+    <t>レッサーパンダ</t>
+  </si>
+  <si>
+    <t>ジャイアントパンダ</t>
+  </si>
+  <si>
+    <t>バラクータ</t>
+  </si>
+  <si>
+    <t>ウナギ</t>
+  </si>
+  <si>
+    <t>ギンザケ</t>
+  </si>
+  <si>
+    <t>岩の美しさ</t>
+  </si>
+  <si>
+    <t>クマノミ</t>
+  </si>
+  <si>
+    <t>チョウザメ</t>
+  </si>
+  <si>
+    <t>ガー</t>
+  </si>
+  <si>
+    <t>ミノカサゴ</t>
+  </si>
+  <si>
+    <t>フグ</t>
+  </si>
+  <si>
+    <t>そろばん</t>
+  </si>
+  <si>
+    <t>アバヤ</t>
+  </si>
+  <si>
+    <t>アカデミックガウン</t>
+  </si>
+  <si>
+    <t>アコーディオン</t>
+  </si>
+  <si>
+    <t>アコースティックギター</t>
+  </si>
+  <si>
+    <t>空母</t>
+  </si>
+  <si>
+    <t>旅客機</t>
+  </si>
+  <si>
+    <t>飛行船</t>
+  </si>
+  <si>
+    <t>祭壇</t>
+  </si>
+  <si>
+    <t>救急車</t>
+  </si>
+  <si>
+    <t>両生類</t>
+  </si>
+  <si>
+    <t>アナログ時計</t>
+  </si>
+  <si>
+    <t>養蜂場</t>
+  </si>
+  <si>
+    <t>エプロン</t>
+  </si>
+  <si>
+    <t>ごみ入れ</t>
+  </si>
+  <si>
+    <t>アサルトライフル</t>
+  </si>
+  <si>
+    <t>バックパック</t>
+  </si>
+  <si>
+    <t>ベーカリー</t>
+  </si>
+  <si>
+    <t>平均台</t>
+  </si>
+  <si>
+    <t>バルーン</t>
+  </si>
+  <si>
+    <t>ボールペン</t>
+  </si>
+  <si>
+    <t>バンドエイド</t>
+  </si>
+  <si>
+    <t>バンジョー</t>
+  </si>
+  <si>
+    <t>バニスター</t>
+  </si>
+  <si>
+    <t>バーベル</t>
+  </si>
+  <si>
+    <t>理髪店の椅子</t>
+  </si>
+  <si>
+    <t>理髪店</t>
+  </si>
+  <si>
+    <t>納屋</t>
+  </si>
+  <si>
+    <t>バロメーター</t>
+  </si>
+  <si>
+    <t>バレル</t>
+  </si>
+  <si>
+    <t>バロー</t>
+  </si>
+  <si>
+    <t>野球</t>
+  </si>
+  <si>
+    <t>バスケットボール</t>
+  </si>
+  <si>
+    <t>バシネット</t>
+  </si>
+  <si>
+    <t>ファゴット</t>
+  </si>
+  <si>
+    <t>水泳帽</t>
+  </si>
+  <si>
+    <t>バスタオル</t>
+  </si>
+  <si>
+    <t>バスタブ</t>
+  </si>
+  <si>
+    <t>ビーチワゴン</t>
+  </si>
+  <si>
+    <t>ビーコン</t>
+  </si>
+  <si>
+    <t>ビーカー</t>
+  </si>
+  <si>
+    <t>ベアスキン</t>
+  </si>
+  <si>
+    <t>ビール瓶</t>
+  </si>
+  <si>
+    <t>ビールグラス</t>
+  </si>
+  <si>
+    <t>ベルコート</t>
+  </si>
+  <si>
+    <t>ビブ</t>
+  </si>
+  <si>
+    <t>自転車</t>
+  </si>
+  <si>
+    <t>ビキニ</t>
+  </si>
+  <si>
+    <t>バインダー</t>
+  </si>
+  <si>
+    <t>双眼鏡</t>
+  </si>
+  <si>
+    <t>巣箱</t>
+  </si>
+  <si>
+    <t>ボートハウス</t>
+  </si>
+  <si>
+    <t>ボブスレー</t>
+  </si>
+  <si>
+    <t>ループタイ</t>
+  </si>
+  <si>
+    <t>ボンネット</t>
+  </si>
+  <si>
+    <t>本棚</t>
+  </si>
+  <si>
+    <t>書店</t>
+  </si>
+  <si>
+    <t>瓶のキャップ</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>ちょうネクタイ</t>
+  </si>
+  <si>
+    <t>真鍮</t>
+  </si>
+  <si>
+    <t>ブラジャー</t>
+  </si>
+  <si>
+    <t>防波堤</t>
+  </si>
+  <si>
+    <t>胸当て</t>
+  </si>
+  <si>
+    <t>ほうき</t>
+  </si>
+  <si>
+    <t>バケツ</t>
+  </si>
+  <si>
+    <t>バックル</t>
+  </si>
+  <si>
+    <t>防弾チョッキ</t>
+  </si>
+  <si>
+    <t>新幹線</t>
+  </si>
+  <si>
+    <t>精肉店</t>
+  </si>
+  <si>
+    <t>タクシー</t>
+  </si>
+  <si>
+    <t>大釜</t>
+  </si>
+  <si>
+    <t>キャンドル</t>
+  </si>
+  <si>
+    <t>大砲</t>
+  </si>
+  <si>
+    <t>カヌー</t>
+  </si>
+  <si>
+    <t>缶切り</t>
+  </si>
+  <si>
+    <t>車のミラー</t>
+  </si>
+  <si>
+    <t>回転木馬</t>
+  </si>
+  <si>
+    <t>大工のキット</t>
+  </si>
+  <si>
+    <t>カートン</t>
+  </si>
+  <si>
+    <t>車のホイール</t>
+  </si>
+  <si>
+    <t>現金自動預け払い機</t>
+  </si>
+  <si>
+    <t>カセット</t>
+  </si>
+  <si>
+    <t>カセット・プレーヤー</t>
+  </si>
+  <si>
+    <t>城</t>
+  </si>
+  <si>
+    <t>カタマラン</t>
+  </si>
+  <si>
+    <t>CDプレーヤー</t>
+  </si>
+  <si>
+    <t>チェロ</t>
+  </si>
+  <si>
+    <t>スマートフォン</t>
+  </si>
+  <si>
+    <t>鎖</t>
+  </si>
+  <si>
+    <t>チェーンリンクフェンス</t>
+  </si>
+  <si>
+    <t>チェーンメール</t>
+  </si>
+  <si>
+    <t>チェーンソー</t>
+  </si>
+  <si>
+    <t>胸</t>
+  </si>
+  <si>
+    <t>シフォニア</t>
+  </si>
+  <si>
+    <t>チャイム</t>
+  </si>
+  <si>
+    <t>中国キャビネット</t>
+  </si>
+  <si>
+    <t>クリスマスの靴下</t>
+  </si>
+  <si>
+    <t>教会</t>
+  </si>
+  <si>
+    <t>映画</t>
+  </si>
+  <si>
+    <t>クリーバー</t>
+  </si>
+  <si>
+    <t>崖の住居</t>
+  </si>
+  <si>
+    <t>マント</t>
+  </si>
+  <si>
+    <t>クロッグ</t>
+  </si>
+  <si>
+    <t>カクテルシェーカー</t>
+  </si>
+  <si>
+    <t>コーヒーマグ</t>
+  </si>
+  <si>
+    <t>コーヒーポット</t>
+  </si>
+  <si>
+    <t>コイル</t>
+  </si>
+  <si>
+    <t>ダイヤル錠</t>
+  </si>
+  <si>
+    <t>コンピュータのキーボード</t>
+  </si>
+  <si>
+    <t>製菓</t>
+  </si>
+  <si>
+    <t>コンテナ船</t>
+  </si>
+  <si>
+    <t>コンバーチブル</t>
+  </si>
+  <si>
+    <t>コークスクリュー</t>
+  </si>
+  <si>
+    <t>コルネット</t>
+  </si>
+  <si>
+    <t>カウボーイブーツ</t>
+  </si>
+  <si>
+    <t>カウボーイハット</t>
+  </si>
+  <si>
+    <t>クレードル</t>
+  </si>
+  <si>
+    <t>クラッシュヘルメット</t>
+  </si>
+  <si>
+    <t>木箱</t>
+  </si>
+  <si>
+    <t>ベビーベッド</t>
+  </si>
+  <si>
+    <t>クロークポット</t>
+  </si>
+  <si>
+    <t>クロケットボール</t>
+  </si>
+  <si>
+    <t>松葉杖</t>
+  </si>
+  <si>
+    <t>ダム</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>デスクトップコンピューター</t>
+  </si>
+  <si>
+    <t>ダイヤル電話</t>
+  </si>
+  <si>
+    <t>おむつ</t>
+  </si>
+  <si>
+    <t>デジタル時計</t>
+  </si>
+  <si>
+    <t>デジタル腕時計</t>
+  </si>
+  <si>
+    <t>ダイニングテーブル</t>
+  </si>
+  <si>
+    <t>意気地なし</t>
+  </si>
+  <si>
+    <t>食器洗い機</t>
+  </si>
+  <si>
+    <t>ディスクブレーキ</t>
+  </si>
+  <si>
+    <t>ドック</t>
+  </si>
+  <si>
+    <t>犬ぞり</t>
+  </si>
+  <si>
+    <t>ドーム</t>
+  </si>
+  <si>
+    <t>玄関マット</t>
+  </si>
+  <si>
+    <t>掘削基地</t>
+  </si>
+  <si>
+    <t>ドラム</t>
+  </si>
+  <si>
+    <t>ドラムスティック</t>
+  </si>
+  <si>
+    <t>ダンベル</t>
+  </si>
+  <si>
+    <t>ダッチオーブン</t>
+  </si>
+  <si>
+    <t>扇風機</t>
+  </si>
+  <si>
+    <t>エレキギター</t>
+  </si>
+  <si>
+    <t>電気機関車</t>
+  </si>
+  <si>
+    <t>娯楽施設</t>
+  </si>
+  <si>
+    <t>封筒</t>
+  </si>
+  <si>
+    <t>エスプレッソマシーン</t>
+  </si>
+  <si>
+    <t>フェースパウダー</t>
+  </si>
+  <si>
+    <t>フェザーボア</t>
+  </si>
+  <si>
+    <t>ファイル</t>
+  </si>
+  <si>
+    <t>消防艇</t>
+  </si>
+  <si>
+    <t>消防車</t>
+  </si>
+  <si>
+    <t>ファイアースクリーン</t>
+  </si>
+  <si>
+    <t>旗竿</t>
+  </si>
+  <si>
+    <t>フルート</t>
+  </si>
+  <si>
+    <t>折り畳み式椅子</t>
+  </si>
+  <si>
+    <t>フットボールヘルメット</t>
+  </si>
+  <si>
+    <t>フォークリフト</t>
+  </si>
+  <si>
+    <t>噴水</t>
+  </si>
+  <si>
+    <t>万年筆</t>
+  </si>
+  <si>
+    <t>四柱</t>
+  </si>
+  <si>
+    <t>貨車</t>
+  </si>
+  <si>
+    <t>フレンチホルン</t>
+  </si>
+  <si>
+    <t>フライパン</t>
+  </si>
+  <si>
+    <t>毛皮のコート</t>
+  </si>
+  <si>
+    <t>ごみ収集車</t>
+  </si>
+  <si>
+    <t>ガスマスク</t>
+  </si>
+  <si>
+    <t>ガソリンポンプ</t>
+  </si>
+  <si>
+    <t>ゴブレット</t>
+  </si>
+  <si>
+    <t>ゴーカート</t>
+  </si>
+  <si>
+    <t>ゴルフボール</t>
+  </si>
+  <si>
+    <t>ゴルフカート</t>
+  </si>
+  <si>
+    <t>ゴンドラ</t>
+  </si>
+  <si>
+    <t>ゴング</t>
+  </si>
+  <si>
+    <t>ガウン</t>
+  </si>
+  <si>
+    <t>グランドピアノ</t>
+  </si>
+  <si>
+    <t>温室</t>
+  </si>
+  <si>
+    <t>グリル</t>
+  </si>
+  <si>
+    <t>食料品店</t>
+  </si>
+  <si>
+    <t>ギロチン</t>
+  </si>
+  <si>
+    <t>ヘアスライド</t>
+  </si>
+  <si>
+    <t>ヘアスプレー</t>
+  </si>
+  <si>
+    <t>半トラック</t>
+  </si>
+  <si>
+    <t>ハンマー</t>
+  </si>
+  <si>
+    <t>妨げます</t>
+  </si>
+  <si>
+    <t>ハンドブロワー</t>
+  </si>
+  <si>
+    <t>タブレット</t>
+  </si>
+  <si>
+    <t>ハンカチ</t>
+  </si>
+  <si>
+    <t>ハードディスク</t>
+  </si>
+  <si>
+    <t>ハーモニカ</t>
+  </si>
+  <si>
+    <t>ハープ</t>
+  </si>
+  <si>
+    <t>ハーベスタ</t>
+  </si>
+  <si>
+    <t>斧</t>
+  </si>
+  <si>
+    <t>ホルスター</t>
+  </si>
+  <si>
+    <t>ホームシアター</t>
+  </si>
+  <si>
+    <t>ハニカム</t>
+  </si>
+  <si>
+    <t>フック</t>
+  </si>
+  <si>
+    <t>フープスカート</t>
+  </si>
+  <si>
+    <t>水平バー</t>
+  </si>
+  <si>
+    <t>馬車</t>
+  </si>
+  <si>
+    <t>砂時計</t>
+  </si>
+  <si>
+    <t>アイフォーン</t>
+  </si>
+  <si>
+    <t>鉄</t>
+  </si>
+  <si>
+    <t>ジャックオーランタン</t>
+  </si>
+  <si>
+    <t>ジーンズ</t>
+  </si>
+  <si>
+    <t>ジープ</t>
+  </si>
+  <si>
+    <t>ジャージー</t>
+  </si>
+  <si>
+    <t>ジグソーパズル</t>
+  </si>
+  <si>
+    <t>人力車</t>
+  </si>
+  <si>
+    <t>ジョイスティック</t>
+  </si>
+  <si>
+    <t>着物</t>
+  </si>
+  <si>
+    <t>膝パッド</t>
+  </si>
+  <si>
+    <t>結び目</t>
+  </si>
+  <si>
+    <t>白衣</t>
+  </si>
+  <si>
+    <t>ひしゃく</t>
+  </si>
+  <si>
+    <t>ランプのかさ</t>
+  </si>
+  <si>
+    <t>ノートパソコン</t>
+  </si>
+  <si>
+    <t>芝刈り機</t>
+  </si>
+  <si>
+    <t>レンズキャップ</t>
+  </si>
+  <si>
+    <t>レターオープナー</t>
+  </si>
+  <si>
+    <t>ライブラリ</t>
+  </si>
+  <si>
+    <t>救命ボート</t>
+  </si>
+  <si>
+    <t>ライター</t>
+  </si>
+  <si>
+    <t>リムジン</t>
+  </si>
+  <si>
+    <t>ライナー</t>
+  </si>
+  <si>
+    <t>口紅</t>
+  </si>
+  <si>
+    <t>ローファー</t>
+  </si>
+  <si>
+    <t>ローション</t>
+  </si>
+  <si>
+    <t>スピーカー</t>
+  </si>
+  <si>
+    <t>ルーペ</t>
+  </si>
+  <si>
+    <t>製材所</t>
+  </si>
+  <si>
+    <t>磁気コンパス</t>
+  </si>
+  <si>
+    <t>郵袋</t>
+  </si>
+  <si>
+    <t>メールボックス</t>
+  </si>
+  <si>
+    <t>マイヨ</t>
+  </si>
+  <si>
+    <t>マンホールの蓋</t>
+  </si>
+  <si>
+    <t>マラカス</t>
+  </si>
+  <si>
+    <t>マリンバ</t>
+  </si>
+  <si>
+    <t>マスク</t>
+  </si>
+  <si>
+    <t>マッチ棒</t>
+  </si>
+  <si>
+    <t>メイポール</t>
+  </si>
+  <si>
+    <t>迷路</t>
+  </si>
+  <si>
+    <t>計量カップ</t>
+  </si>
+  <si>
+    <t>薬箱</t>
+  </si>
+  <si>
+    <t>巨石</t>
+  </si>
+  <si>
+    <t>マイク</t>
+  </si>
+  <si>
+    <t>マイクロ波</t>
+  </si>
+  <si>
+    <t>軍服</t>
+  </si>
+  <si>
+    <t>ミルク缶</t>
+  </si>
+  <si>
+    <t>ミニバス</t>
+  </si>
+  <si>
+    <t>ミニスカート</t>
+  </si>
+  <si>
+    <t>ミニバン</t>
+  </si>
+  <si>
+    <t>ミサイル</t>
+  </si>
+  <si>
+    <t>ミトン</t>
+  </si>
+  <si>
+    <t>ミキシングボウル</t>
+  </si>
+  <si>
+    <t>移動住宅</t>
+  </si>
+  <si>
+    <t>モデルT</t>
+  </si>
+  <si>
+    <t>モデム</t>
+  </si>
+  <si>
+    <t>修道院</t>
+  </si>
+  <si>
+    <t>モニター</t>
+  </si>
+  <si>
+    <t>モペット</t>
+  </si>
+  <si>
+    <t>モルタル</t>
+  </si>
+  <si>
+    <t>モルタルボード</t>
+  </si>
+  <si>
+    <t>モスク</t>
+  </si>
+  <si>
+    <t>蚊帳</t>
+  </si>
+  <si>
+    <t>スクーター</t>
+  </si>
+  <si>
+    <t>マウンテンバイク</t>
+  </si>
+  <si>
+    <t>山のテント</t>
+  </si>
+  <si>
+    <t>マウス</t>
+  </si>
+  <si>
+    <t>ネズミ捕り</t>
+  </si>
+  <si>
+    <t>引っ越しトラック</t>
+  </si>
+  <si>
+    <t>銃口</t>
+  </si>
+  <si>
+    <t>ネイル</t>
+  </si>
+  <si>
+    <t>ネックブレース</t>
+  </si>
+  <si>
+    <t>ネックレス</t>
+  </si>
+  <si>
+    <t>乳首</t>
+  </si>
+  <si>
+    <t>ノート</t>
+  </si>
+  <si>
+    <t>オベリスク</t>
+  </si>
+  <si>
+    <t>オーボエ</t>
+  </si>
+  <si>
+    <t>オカリナ</t>
+  </si>
+  <si>
+    <t>オドメーター</t>
+  </si>
+  <si>
+    <t>オイルフィルター</t>
+  </si>
+  <si>
+    <t>器官</t>
+  </si>
+  <si>
+    <t>オシロスコープ</t>
+  </si>
+  <si>
+    <t>オーバースカート</t>
+  </si>
+  <si>
+    <t>牛車</t>
+  </si>
+  <si>
+    <t>酸素マスク</t>
+  </si>
+  <si>
+    <t>パケット</t>
+  </si>
+  <si>
+    <t>パドル</t>
+  </si>
+  <si>
+    <t>パドルホイール</t>
+  </si>
+  <si>
+    <t>南京錠</t>
+  </si>
+  <si>
+    <t>絵筆</t>
+  </si>
+  <si>
+    <t>パジャマ</t>
+  </si>
+  <si>
+    <t>宮殿</t>
+  </si>
+  <si>
+    <t>パンパイプ</t>
+  </si>
+  <si>
+    <t>ペーパータオル</t>
+  </si>
+  <si>
+    <t>パラシュート</t>
+  </si>
+  <si>
+    <t>平行棒</t>
+  </si>
+  <si>
+    <t>公園のベンチ</t>
+  </si>
+  <si>
+    <t>パーキングメーター</t>
+  </si>
+  <si>
+    <t>乗用車</t>
+  </si>
+  <si>
+    <t>パティオ</t>
+  </si>
+  <si>
+    <t>有料電話</t>
+  </si>
+  <si>
+    <t>台座</t>
+  </si>
+  <si>
+    <t>筆箱</t>
+  </si>
+  <si>
+    <t>鉛筆削り</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>ペトリ皿</t>
+  </si>
+  <si>
+    <t>コピー機</t>
+  </si>
+  <si>
+    <t>選ぶ</t>
+  </si>
+  <si>
+    <t>スパイク付き鉄かぶと</t>
+  </si>
+  <si>
+    <t>杭柵</t>
+  </si>
+  <si>
+    <t>拾う</t>
+  </si>
+  <si>
+    <t>桟橋</t>
+  </si>
+  <si>
+    <t>貯金箱</t>
+  </si>
+  <si>
+    <t>錠剤瓶</t>
+  </si>
+  <si>
+    <t>枕</t>
+  </si>
+  <si>
+    <t>ピンポン球</t>
+  </si>
+  <si>
+    <t>風車</t>
+  </si>
+  <si>
+    <t>海賊</t>
+  </si>
+  <si>
+    <t>ピッチャー</t>
+  </si>
+  <si>
+    <t>飛行機</t>
+  </si>
+  <si>
+    <t>プラネタリウム</t>
+  </si>
+  <si>
+    <t>ビニール袋</t>
+  </si>
+  <si>
+    <t>皿立て</t>
+  </si>
+  <si>
+    <t>プラウ</t>
+  </si>
+  <si>
+    <t>プランジャー</t>
+  </si>
+  <si>
+    <t>ポラロイドカメラ</t>
+  </si>
+  <si>
+    <t>ポール</t>
+  </si>
+  <si>
+    <t>警察車</t>
+  </si>
+  <si>
+    <t>ポンチョ</t>
+  </si>
+  <si>
+    <t>ビリヤード台</t>
+  </si>
+  <si>
+    <t>ポップ・ボトル</t>
+  </si>
+  <si>
+    <t>ポット</t>
+  </si>
+  <si>
+    <t>ろくろ</t>
+  </si>
+  <si>
+    <t>パワードリル</t>
+  </si>
+  <si>
+    <t>礼拝用敷物</t>
+  </si>
+  <si>
+    <t>プリンタ</t>
+  </si>
+  <si>
+    <t>刑務所</t>
+  </si>
+  <si>
+    <t>発射体</t>
+  </si>
+  <si>
+    <t>プロジェクター</t>
+  </si>
+  <si>
+    <t>パック</t>
+  </si>
+  <si>
+    <t>サンドバッグ</t>
+  </si>
+  <si>
+    <t>財布</t>
+  </si>
+  <si>
+    <t>クイル</t>
+  </si>
+  <si>
+    <t>キルト</t>
+  </si>
+  <si>
+    <t>レーサー</t>
+  </si>
+  <si>
+    <t>ラケット</t>
+  </si>
+  <si>
+    <t>ラジエーター</t>
+  </si>
+  <si>
+    <t>無線</t>
+  </si>
+  <si>
+    <t>電波望遠鏡</t>
+  </si>
+  <si>
+    <t>天水桶</t>
+  </si>
+  <si>
+    <t>RV車</t>
+  </si>
+  <si>
+    <t>リール</t>
+  </si>
+  <si>
+    <t>レフレックスカメラ</t>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+  </si>
+  <si>
+    <t>リモコン</t>
+  </si>
+  <si>
+    <t>レストラン</t>
+  </si>
+  <si>
+    <t>リボルバー</t>
+  </si>
+  <si>
+    <t>ライフル</t>
+  </si>
+  <si>
+    <t>ロッキングチェア</t>
+  </si>
+  <si>
+    <t>焼肉料理店</t>
+  </si>
+  <si>
+    <t>消しゴム</t>
+  </si>
+  <si>
+    <t>ラグビーボール</t>
+  </si>
+  <si>
+    <t>ルール</t>
+  </si>
+  <si>
+    <t>ランニングシューズ</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>安全ピン</t>
+  </si>
+  <si>
+    <t>塩の入れ物</t>
+  </si>
+  <si>
+    <t>サンダル</t>
+  </si>
+  <si>
+    <t>サロン</t>
+  </si>
+  <si>
+    <t>サックス</t>
+  </si>
+  <si>
+    <t>鞘</t>
+  </si>
+  <si>
+    <t>規模</t>
+  </si>
+  <si>
+    <t>スクールバス</t>
+  </si>
+  <si>
+    <t>スクーナー</t>
+  </si>
+  <si>
+    <t>スコアボード</t>
+  </si>
+  <si>
+    <t>画面</t>
+  </si>
+  <si>
+    <t>スクリュー</t>
+  </si>
+  <si>
+    <t>ドライバー</t>
+  </si>
+  <si>
+    <t>シートベルト</t>
+  </si>
+  <si>
+    <t>ミシン</t>
+  </si>
+  <si>
+    <t>シールド</t>
+  </si>
+  <si>
+    <t>靴屋</t>
+  </si>
+  <si>
+    <t>障子</t>
+  </si>
+  <si>
+    <t>買い物かご</t>
+  </si>
+  <si>
+    <t>ショッピングカート</t>
+  </si>
+  <si>
+    <t>シャベル</t>
+  </si>
+  <si>
+    <t>シャワーキャップ</t>
+  </si>
+  <si>
+    <t>シャワーカーテン</t>
+  </si>
+  <si>
+    <t>スキー</t>
+  </si>
+  <si>
+    <t>スキーマスク</t>
+  </si>
+  <si>
+    <t>寝袋</t>
+  </si>
+  <si>
+    <t>計算尺</t>
+  </si>
+  <si>
+    <t>引き戸</t>
+  </si>
+  <si>
+    <t>スロット</t>
+  </si>
+  <si>
+    <t>スノーケル</t>
+  </si>
+  <si>
+    <t>スノーモービル</t>
+  </si>
+  <si>
+    <t>除雪機</t>
+  </si>
+  <si>
+    <t>ソープディスペンサー</t>
+  </si>
+  <si>
+    <t>サッカーボール</t>
+  </si>
+  <si>
+    <t>靴下</t>
+  </si>
+  <si>
+    <t>太陽の皿</t>
+  </si>
+  <si>
+    <t>ソンブレロ</t>
+  </si>
+  <si>
+    <t>スープ皿</t>
+  </si>
+  <si>
+    <t>スペースキー</t>
+  </si>
+  <si>
+    <t>スペースヒーター</t>
+  </si>
+  <si>
+    <t>スペースシャトル</t>
+  </si>
+  <si>
+    <t>へら</t>
+  </si>
+  <si>
+    <t>スピードボート</t>
+  </si>
+  <si>
+    <t>クモの巣</t>
+  </si>
+  <si>
+    <t>スピンドル</t>
+  </si>
+  <si>
+    <t>スポーツカー</t>
+  </si>
+  <si>
+    <t>スポットライト</t>
+  </si>
+  <si>
+    <t>ステージ</t>
+  </si>
+  <si>
+    <t>蒸気機関車</t>
+  </si>
+  <si>
+    <t>鋼アーチ橋</t>
+  </si>
+  <si>
+    <t>スチールドラム</t>
+  </si>
+  <si>
+    <t>聴診器</t>
+  </si>
+  <si>
+    <t>ストール</t>
+  </si>
+  <si>
+    <t>石垣</t>
+  </si>
+  <si>
+    <t>ストップウォッチ</t>
+  </si>
+  <si>
+    <t>レンジ</t>
+  </si>
+  <si>
+    <t>ストレーナー</t>
+  </si>
+  <si>
+    <t>路面電車</t>
+  </si>
+  <si>
+    <t>ストレッチャー</t>
+  </si>
+  <si>
+    <t>スタジオソファ</t>
+  </si>
+  <si>
+    <t>仏舎利塔</t>
+  </si>
+  <si>
+    <t>潜水艦</t>
+  </si>
+  <si>
+    <t>スーツ</t>
+  </si>
+  <si>
+    <t>日時計</t>
+  </si>
+  <si>
+    <t>サングラス</t>
+  </si>
+  <si>
+    <t>日焼け止め剤</t>
+  </si>
+  <si>
+    <t>つり橋</t>
+  </si>
+  <si>
+    <t>綿棒</t>
+  </si>
+  <si>
+    <t>トレーナー</t>
+  </si>
+  <si>
+    <t>海パン</t>
+  </si>
+  <si>
+    <t>スイング</t>
+  </si>
+  <si>
+    <t>スイッチ</t>
+  </si>
+  <si>
+    <t>注射器</t>
+  </si>
+  <si>
+    <t>電気スタンド</t>
+  </si>
+  <si>
+    <t>タンク</t>
+  </si>
+  <si>
+    <t>テーププレーヤー</t>
+  </si>
+  <si>
+    <t>ティーポット</t>
+  </si>
+  <si>
+    <t>テディ</t>
+  </si>
+  <si>
+    <t>テレビ</t>
+  </si>
+  <si>
+    <t>テニスボール</t>
+  </si>
+  <si>
+    <t>サッチ</t>
+  </si>
+  <si>
+    <t>劇場のカーテン</t>
+  </si>
+  <si>
+    <t>指ぬき</t>
+  </si>
+  <si>
+    <t>脱穀機</t>
+  </si>
+  <si>
+    <t>王位</t>
+  </si>
+  <si>
+    <t>瓦屋根</t>
+  </si>
+  <si>
+    <t>トースター</t>
+  </si>
+  <si>
+    <t>タバコ屋</t>
+  </si>
+  <si>
+    <t>便座</t>
+  </si>
+  <si>
+    <t>トーチ</t>
+  </si>
+  <si>
+    <t>トーテムポール</t>
+  </si>
+  <si>
+    <t>レッカー車</t>
+  </si>
+  <si>
+    <t>玩具屋</t>
+  </si>
+  <si>
+    <t>トラクター</t>
+  </si>
+  <si>
+    <t>トレーラートラック</t>
+  </si>
+  <si>
+    <t>トレイ</t>
+  </si>
+  <si>
+    <t>トレンチコート</t>
+  </si>
+  <si>
+    <t>三輪車</t>
+  </si>
+  <si>
+    <t>三胴船</t>
+  </si>
+  <si>
+    <t>三脚</t>
+  </si>
+  <si>
+    <t>凱旋門</t>
+  </si>
+  <si>
+    <t>トロリーバス</t>
+  </si>
+  <si>
+    <t>トロンボーン</t>
+  </si>
+  <si>
+    <t>回転ドア</t>
+  </si>
+  <si>
+    <t>タイプライターのキーボード</t>
+  </si>
+  <si>
+    <t>傘</t>
+  </si>
+  <si>
+    <t>一輪車</t>
+  </si>
+  <si>
+    <t>直立</t>
+  </si>
+  <si>
+    <t>真空</t>
+  </si>
+  <si>
+    <t>花瓶</t>
+  </si>
+  <si>
+    <t>ボールト</t>
+  </si>
+  <si>
+    <t>ベルベット</t>
+  </si>
+  <si>
+    <t>自動販売機</t>
+  </si>
+  <si>
+    <t>祭服</t>
+  </si>
+  <si>
+    <t>高架橋</t>
+  </si>
+  <si>
+    <t>バイオリン</t>
+  </si>
+  <si>
+    <t>バレーボール</t>
+  </si>
+  <si>
+    <t>ワッフル焼き型</t>
+  </si>
+  <si>
+    <t>壁時計</t>
+  </si>
+  <si>
+    <t>ワードローブ</t>
+  </si>
+  <si>
+    <t>戦闘機</t>
+  </si>
+  <si>
+    <t>洗面器</t>
+  </si>
+  <si>
+    <t>ワッシャー</t>
+  </si>
+  <si>
+    <t>水筒</t>
+  </si>
+  <si>
+    <t>水差し</t>
+  </si>
+  <si>
+    <t>給水塔</t>
+  </si>
+  <si>
+    <t>ウイスキージャグ</t>
+  </si>
+  <si>
+    <t>ホイッスル</t>
+  </si>
+  <si>
+    <t>かつら</t>
+  </si>
+  <si>
+    <t>窓網戸</t>
+  </si>
+  <si>
+    <t>ブラインド</t>
+  </si>
+  <si>
+    <t>ウィンザーネクタイ</t>
+  </si>
+  <si>
+    <t>ワインボトル</t>
+  </si>
+  <si>
+    <t>翼</t>
+  </si>
+  <si>
+    <t>中華鍋</t>
+  </si>
+  <si>
+    <t>木製スプーン</t>
+  </si>
+  <si>
+    <t>ウール</t>
+  </si>
+  <si>
+    <t>ワームフェンス</t>
+  </si>
+  <si>
+    <t>難破船</t>
+  </si>
+  <si>
+    <t>ヨール</t>
+  </si>
+  <si>
+    <t>パオ</t>
+  </si>
+  <si>
+    <t>サイト</t>
+  </si>
+  <si>
+    <t>コミックブック</t>
+  </si>
+  <si>
+    <t>クロスワードパズル</t>
+  </si>
+  <si>
+    <t>道路標識</t>
+  </si>
+  <si>
+    <t>交通信号灯</t>
+  </si>
+  <si>
+    <t>ブックカバー</t>
+  </si>
+  <si>
+    <t>メニュー</t>
+  </si>
+  <si>
+    <t>プレート</t>
+  </si>
+  <si>
+    <t>グアカモーレ</t>
+  </si>
+  <si>
+    <t>コンソメ</t>
+  </si>
+  <si>
+    <t>ホットポット</t>
+  </si>
+  <si>
+    <t>パフェ</t>
+  </si>
+  <si>
+    <t>アイスクリーム</t>
+  </si>
+  <si>
+    <t>アイスキャンディー</t>
+  </si>
+  <si>
+    <t>フランスパン</t>
+  </si>
+  <si>
+    <t>ベーグル</t>
+  </si>
+  <si>
+    <t>プレッツェル</t>
+  </si>
+  <si>
+    <t>チーズバーガー</t>
+  </si>
+  <si>
+    <t>ホットドッグ</t>
+  </si>
+  <si>
+    <t>マッシュポテト</t>
+  </si>
+  <si>
+    <t>キャベツ</t>
+  </si>
+  <si>
+    <t>ブロッコリー</t>
+  </si>
+  <si>
+    <t>カリフラワー</t>
+  </si>
+  <si>
+    <t>ズッキーニ</t>
+  </si>
+  <si>
+    <t>そうめんかぼちゃ</t>
+  </si>
+  <si>
+    <t>ドングリかぼちゃ</t>
+  </si>
+  <si>
+    <t>カボチャ</t>
+  </si>
+  <si>
+    <t>キュウリ</t>
+  </si>
+  <si>
+    <t>アーティチョーク</t>
+  </si>
+  <si>
+    <t>ピーマン</t>
+  </si>
+  <si>
+    <t>カルドン</t>
+  </si>
+  <si>
+    <t>キノコ</t>
+  </si>
+  <si>
+    <t>リンゴ</t>
+  </si>
+  <si>
+    <t>イチゴ</t>
+  </si>
+  <si>
+    <t>オレンジ</t>
+  </si>
+  <si>
+    <t>レモン</t>
+  </si>
+  <si>
+    <t>イチジク</t>
+  </si>
+  <si>
+    <t>パイナップル</t>
+  </si>
+  <si>
+    <t>バナナ</t>
+  </si>
+  <si>
+    <t>パラミツ</t>
+  </si>
+  <si>
+    <t>カスタードアップル</t>
+  </si>
+  <si>
+    <t>ザクロ</t>
+  </si>
+  <si>
+    <t>干し草</t>
+  </si>
+  <si>
+    <t>カルボナーラ</t>
+  </si>
+  <si>
+    <t>チョコレートソース</t>
+  </si>
+  <si>
+    <t>パン生地</t>
+  </si>
+  <si>
+    <t>ミートローフ</t>
+  </si>
+  <si>
+    <t>ピザ</t>
+  </si>
+  <si>
+    <t>ポットパイ</t>
+  </si>
+  <si>
+    <t>ブリトー</t>
+  </si>
+  <si>
+    <t>赤ワイン</t>
+  </si>
+  <si>
+    <t>エスプレッソ</t>
+  </si>
+  <si>
+    <t>カップ</t>
+  </si>
+  <si>
+    <t>エッグノッグ</t>
+  </si>
+  <si>
+    <t>アルプス</t>
+  </si>
+  <si>
+    <t>バブル</t>
+  </si>
+  <si>
+    <t>崖</t>
+  </si>
+  <si>
+    <t>サンゴ礁</t>
+  </si>
+  <si>
+    <t>間欠泉</t>
+  </si>
+  <si>
+    <t>湖畔</t>
+  </si>
+  <si>
+    <t>岬</t>
+  </si>
+  <si>
+    <t>砂州</t>
+  </si>
+  <si>
+    <t>海岸</t>
+  </si>
+  <si>
+    <t>谷</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>野球選手</t>
+  </si>
+  <si>
+    <t>新郎</t>
+  </si>
+  <si>
+    <t>スキューバダイバー</t>
+  </si>
+  <si>
+    <t>菜種</t>
+  </si>
+  <si>
+    <t>デイジー</t>
+  </si>
+  <si>
+    <t>蘭</t>
+  </si>
+  <si>
+    <t>トウモロコシ</t>
+  </si>
+  <si>
+    <t>ドングリ</t>
+  </si>
+  <si>
+    <t>ヒップ</t>
+  </si>
+  <si>
+    <t>トチノキ</t>
+  </si>
+  <si>
+    <t>サンゴ菌</t>
+  </si>
+  <si>
+    <t>ハラタケ</t>
+  </si>
+  <si>
+    <t>シャグマアミガサタケ</t>
+  </si>
+  <si>
+    <t>スッポンタケ</t>
+  </si>
+  <si>
+    <t>舞茸</t>
+  </si>
+  <si>
+    <t>きのこ</t>
+  </si>
+  <si>
+    <t>耳</t>
+  </si>
+  <si>
+    <t>トイレットペーパー</t>
   </si>
 </sst>
 </file>
@@ -958,16 +3793,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF6600"/>
-      <name val="IPA Pゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF6600"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="IPA Pゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1068,7 +3903,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1117,6 +3952,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1134,15 +3973,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>133200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>53280</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1155,8 +3994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="353520" y="5307120"/>
-          <a:ext cx="4378320" cy="2921040"/>
+          <a:off x="380520" y="5298120"/>
+          <a:ext cx="4377960" cy="2920680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1178,7 +4017,7 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +4032,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1204,12 +4043,12 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1241,7 +4080,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1278,17 +4117,17 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1320,7 +4159,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1420,7 +4259,7 @@
       <c r="AN5" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1527,12 +4366,12 @@
       <c r="AN12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1572,7 +4411,7 @@
       <c r="AB1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AB2" s="0"/>
@@ -1702,7 +4541,7 @@
         <v>48</v>
       </c>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="11" t="s">
+      <c r="AB17" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1752,7 +4591,7 @@
       <c r="AB21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AB22" s="0"/>
@@ -1837,7 +4676,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
-      <c r="AB38" s="11" t="s">
+      <c r="AB38" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1910,7 +4749,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="5"/>
-      <c r="AB42" s="11" t="s">
+      <c r="AB42" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1963,7 +4802,7 @@
       <c r="AA46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1992,4 +4831,5070 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1009"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="3.22680412371134"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B308" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B316" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B320" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B321" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="0" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B407" s="0" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="0" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="0" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B439" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="0" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B446" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B447" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B448" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B450" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B451" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B452" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B453" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B455" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B456" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B457" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B458" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B460" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B461" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B462" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B463" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B464" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B466" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B472" s="0" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B474" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B477" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B488" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B489" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B490" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B491" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B492" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B493" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B494" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B495" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="0" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B498" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B499" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B500" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B502" s="0" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B503" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B504" s="0" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B505" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B506" s="0" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B507" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B508" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B509" s="0" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B511" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B512" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B513" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B514" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B516" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B517" s="0" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B518" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B519" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B520" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B521" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B522" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B523" s="0" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B524" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B525" s="0" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B526" s="0" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B527" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B528" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B529" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B530" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B531" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B532" s="0" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B533" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B534" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B535" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B536" s="0" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B537" s="0" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B538" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B539" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B540" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B541" s="0" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B542" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B543" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B544" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B545" s="0" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B546" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B547" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B548" s="0" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B549" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B550" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B551" s="0" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B552" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B553" s="0" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B554" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B555" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B556" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B557" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B558" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B559" s="0" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B560" s="0" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B561" s="0" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B562" s="0" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B563" s="0" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B564" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B565" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B566" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B567" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B568" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B569" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B570" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B571" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B572" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B573" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B574" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B575" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B576" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B577" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B578" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B579" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B580" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B581" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B582" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B583" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B584" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B585" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B586" s="0" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B587" s="0" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B588" s="0" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B589" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B590" s="0" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B591" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B592" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B593" s="0" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B594" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B595" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B596" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B597" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B598" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B599" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B600" s="0" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B601" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B602" s="0" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B603" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B604" s="0" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B605" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B606" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B607" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B608" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B609" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B610" s="0" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B611" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B612" s="0" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B613" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B614" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B615" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B616" s="0" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B617" s="0" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B618" s="0" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B619" s="0" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B620" s="0" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B621" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B622" s="0" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B623" s="0" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B624" s="0" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B625" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B626" s="0" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B627" s="0" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B628" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B629" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B630" s="0" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B631" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B632" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B633" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B634" s="0" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B635" s="0" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B636" s="0" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B637" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B638" s="0" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B639" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B640" s="0" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B641" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B642" s="0" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B643" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B644" s="0" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B645" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B646" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B647" s="0" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B648" s="0" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B649" s="0" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B650" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B651" s="0" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B652" s="0" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B653" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B654" s="0" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B655" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B656" s="0" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B657" s="0" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B658" s="0" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B659" s="0" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B660" s="0" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B661" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B662" s="0" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B663" s="0" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B664" s="0" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B665" s="0" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B666" s="0" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B667" s="0" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B668" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B669" s="0" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B670" s="0" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B671" s="0" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B672" s="0" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B673" s="0" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B674" s="0" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B675" s="0" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B676" s="0" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B677" s="0" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B678" s="0" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B679" s="0" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B680" s="0" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B681" s="0" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B682" s="0" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B683" s="0" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B684" s="0" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B685" s="0" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B686" s="0" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B687" s="0" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B688" s="0" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B689" s="0" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B690" s="0" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B691" s="0" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B692" s="0" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B693" s="0" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B694" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B695" s="0" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B696" s="0" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B697" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B698" s="0" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B699" s="0" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B700" s="0" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B701" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B702" s="0" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B703" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B704" s="0" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B705" s="0" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B706" s="0" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B707" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B708" s="0" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B709" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B710" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B711" s="0" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B712" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B713" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B714" s="0" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B715" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B716" s="0" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B717" s="0" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B718" s="0" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B719" s="0" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B720" s="0" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B721" s="0" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B722" s="0" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B723" s="0" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B724" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B725" s="0" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B726" s="0" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B727" s="0" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B728" s="0" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B729" s="0" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B730" s="0" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B731" s="0" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B732" s="0" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B733" s="0" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B734" s="0" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B735" s="0" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B736" s="0" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B737" s="0" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B738" s="0" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B739" s="0" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B740" s="0" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B741" s="0" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B742" s="0" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B743" s="0" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B744" s="0" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B745" s="0" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B746" s="0" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B747" s="0" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B748" s="0" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B749" s="0" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B750" s="0" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B751" s="0" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B752" s="0" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B753" s="0" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B754" s="0" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B755" s="0" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B756" s="0" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B757" s="0" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B758" s="0" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B759" s="0" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B760" s="0" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B761" s="0" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B762" s="0" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B763" s="0" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B764" s="0" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B765" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B766" s="0" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B767" s="0" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B768" s="0" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B769" s="0" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B770" s="0" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B771" s="0" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B772" s="0" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B773" s="0" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B774" s="0" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B775" s="0" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B776" s="0" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B777" s="0" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B778" s="0" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B779" s="0" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B780" s="0" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B781" s="0" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B782" s="0" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B783" s="0" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B784" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B785" s="0" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B786" s="0" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B787" s="0" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B788" s="0" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B789" s="0" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B790" s="0" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B791" s="0" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B792" s="0" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B793" s="0" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B794" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B795" s="0" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B796" s="0" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B797" s="0" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B798" s="0" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B799" s="0" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B800" s="0" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B801" s="0" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B802" s="0" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B803" s="0" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B804" s="0" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B805" s="0" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B806" s="0" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B807" s="0" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B808" s="0" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B809" s="0" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B810" s="0" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B811" s="0" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B812" s="0" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B813" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B814" s="0" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B815" s="0" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B816" s="0" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B817" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B818" s="0" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B819" s="0" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B820" s="0" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B821" s="0" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B822" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B823" s="0" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B824" s="0" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B825" s="0" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B826" s="0" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B827" s="0" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B828" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B829" s="0" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B830" s="0" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B831" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B832" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B833" s="0" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B834" s="0" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B835" s="0" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B836" s="0" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B837" s="0" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B838" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B839" s="0" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B840" s="0" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B841" s="0" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B842" s="0" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B843" s="0" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B844" s="0" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B845" s="0" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B846" s="0" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B847" s="0" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B848" s="0" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B849" s="0" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B850" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B851" s="0" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B852" s="0" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B853" s="0" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B854" s="0" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B855" s="0" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B856" s="0" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B857" s="0" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B858" s="0" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B859" s="0" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B860" s="0" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B861" s="0" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B862" s="0" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B863" s="0" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B864" s="0" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B865" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B866" s="0" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B867" s="0" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B868" s="0" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B869" s="0" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B870" s="0" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B871" s="0" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B872" s="0" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B873" s="0" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B874" s="0" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B875" s="0" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B876" s="0" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B877" s="0" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B878" s="0" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B879" s="0" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B880" s="0" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B881" s="0" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B882" s="0" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B883" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B884" s="0" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B885" s="0" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B886" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B887" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B888" s="0" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B889" s="0" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B890" s="0" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B891" s="0" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B892" s="0" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B893" s="0" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B894" s="0" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B895" s="0" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B896" s="0" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B897" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B898" s="0" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B899" s="0" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B900" s="0" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B901" s="0" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B902" s="0" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B903" s="0" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B904" s="0" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B905" s="0" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B906" s="0" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B907" s="0" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B908" s="0" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B909" s="0" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B910" s="0" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B911" s="0" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B912" s="0" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B913" s="0" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B914" s="0" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B915" s="0" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B916" s="0" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B917" s="0" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B918" s="0" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B919" s="0" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B920" s="0" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B921" s="0" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B922" s="0" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B923" s="0" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B924" s="0" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B925" s="0" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B926" s="0" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B927" s="0" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B928" s="0" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B929" s="0" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B930" s="0" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B931" s="0" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B932" s="0" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B933" s="0" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B934" s="0" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B935" s="0" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B936" s="0" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B937" s="0" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B938" s="0" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B939" s="0" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B940" s="0" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B941" s="0" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B942" s="0" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B943" s="0" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B944" s="0" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B945" s="0" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B946" s="0" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B947" s="0" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B948" s="0" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B949" s="0" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B950" s="0" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B951" s="0" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B952" s="0" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B953" s="0" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B954" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B955" s="0" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B956" s="0" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B957" s="0" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B958" s="0" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B959" s="0" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B960" s="0" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B961" s="0" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B962" s="0" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B963" s="0" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B964" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B965" s="0" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B966" s="0" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B967" s="0" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B968" s="0" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B969" s="0" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B970" s="0" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B971" s="0" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B972" s="0" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B973" s="0" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B974" s="0" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B975" s="0" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B976" s="0" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B977" s="0" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B978" s="0" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B979" s="0" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B980" s="0" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B981" s="0" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B982" s="0" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B983" s="0" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B984" s="0" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B985" s="0" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B986" s="0" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B987" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B988" s="0" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B989" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B990" s="0" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B991" s="0" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B992" s="0" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B993" s="0" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B994" s="0" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B995" s="0" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B996" s="0" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B997" s="0" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B998" s="0" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B999" s="0" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1000" s="0" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1001" s="0" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1002" s="0" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1003" s="0" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1004" s="0" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1005" s="0" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1006" s="0" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1007" s="0" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1008" s="0" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1009" s="0" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://qiita.com/PonDad/items/c5419c164b4f2efee368"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://gist.github.com/PonDad/4dcb4b242b9358e524b4ddecbee385e9"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>